--- a/NewGames2.xlsx
+++ b/NewGames2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="31650" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,15 +14,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>It Takes Two</t>
-  </si>
-  <si>
-    <t>2021-3-25T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2021-3-27T00:00:00Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Tile Cities</t>
+  </si>
+  <si>
+    <t>Dinkum</t>
+  </si>
+  <si>
+    <t>Inspector Waffles</t>
+  </si>
+  <si>
+    <t>Yerba Mate Tycoon</t>
+  </si>
+  <si>
+    <t>Placid Plastic Duck Simulator</t>
+  </si>
+  <si>
+    <t>Buddy Simulator 1984</t>
+  </si>
+  <si>
+    <t>The Planet Crafter</t>
+  </si>
+  <si>
+    <t>Hydroneer</t>
+  </si>
+  <si>
+    <t>Production Line</t>
+  </si>
+  <si>
+    <t>Wartales</t>
+  </si>
+  <si>
+    <t>Stacklands</t>
+  </si>
+  <si>
+    <t>Bonding Ambivalence</t>
+  </si>
+  <si>
+    <t>Watch Your Plastic Duck</t>
+  </si>
+  <si>
+    <t>Dungeons of Edera</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Avorion</t>
+  </si>
+  <si>
+    <t>GROSS</t>
+  </si>
+  <si>
+    <t>Freedom Planet 2</t>
+  </si>
+  <si>
+    <t>Punch A Bunch</t>
+  </si>
+  <si>
+    <t>EVERSPACE 2</t>
+  </si>
+  <si>
+    <t>Lost Potato</t>
+  </si>
+  <si>
+    <t>Big Ambitions</t>
+  </si>
+  <si>
+    <t>Mortal Glory</t>
+  </si>
+  <si>
+    <t>Please Fix The Road</t>
+  </si>
+  <si>
+    <t>Barotrauma</t>
+  </si>
+  <si>
+    <t>Noobs Want to Live</t>
+  </si>
+  <si>
+    <t>Cygnus</t>
+  </si>
+  <si>
+    <t>Contraband Police</t>
+  </si>
+  <si>
+    <t>Pawnbarian</t>
+  </si>
+  <si>
+    <t>Supraland</t>
+  </si>
+  <si>
+    <t>pureya</t>
+  </si>
+  <si>
+    <t>West Hunt</t>
+  </si>
+  <si>
+    <t>PostCollapse</t>
+  </si>
+  <si>
+    <t>Ravenous Devils</t>
+  </si>
+  <si>
+    <t>EVERSPACE</t>
+  </si>
+  <si>
+    <t>Majotori</t>
+  </si>
+  <si>
+    <t>Protolife</t>
+  </si>
+  <si>
+    <t>City Climber</t>
+  </si>
+  <si>
+    <t>Highway Blossoms</t>
+  </si>
+  <si>
+    <t>Son of a Witch</t>
+  </si>
+  <si>
+    <t>LOST EMBER</t>
+  </si>
+  <si>
+    <t>A Little Golf Journey</t>
+  </si>
+  <si>
+    <t>Nebula</t>
+  </si>
+  <si>
+    <t>Project Heartbeat</t>
+  </si>
+  <si>
+    <t>Eastshade</t>
+  </si>
+  <si>
+    <t>Tinyfolks</t>
+  </si>
+  <si>
+    <t>Tilecraft</t>
+  </si>
+  <si>
+    <t>Bloody Rally Show</t>
+  </si>
+  <si>
+    <t>The Wreck</t>
+  </si>
+  <si>
+    <t>Larcin Lazer</t>
+  </si>
+  <si>
+    <t>The Companion</t>
+  </si>
+  <si>
+    <t>Cthulhu Saves Christmas</t>
+  </si>
+  <si>
+    <t>Cat Herder</t>
+  </si>
+  <si>
+    <t>Forever Skies</t>
+  </si>
+  <si>
+    <t>Baldur's Gate 3</t>
+  </si>
+  <si>
+    <t>Sanfu</t>
+  </si>
+  <si>
+    <t>Master Detective Archives: Rain Code</t>
+  </si>
+  <si>
+    <t>Remnant II</t>
   </si>
 </sst>
 </file>
@@ -30,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,54 +220,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +254,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -115,61 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -186,6 +333,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +347,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -203,19 +371,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,163 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,21 +576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,11 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +645,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -502,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -648,8 +816,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -970,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -982,8 +1150,8 @@
     <col min="2" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -991,6 +1159,644 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44686</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44756</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44278</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44442</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44644</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43531</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45028</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44813</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43552</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44937</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44817</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44946</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44995</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43621</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44970</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44911</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44993</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44463</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43560</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44281</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44726</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43111</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44680</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42627</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42822</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42790</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42538</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43236</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43791</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44483</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44951</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43509</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44713</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44861</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43880</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44950</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43822</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44868</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45135</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45132</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45134</v>
       </c>
     </row>
   </sheetData>
